--- a/二十路功分网络TR/bin/Debug/AutoSave.xlsx
+++ b/二十路功分网络TR/bin/Debug/AutoSave.xlsx
@@ -16,7 +16,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <si>
-    <t>本振末级功分(R)测试数据</t>
+    <t>合路末级功分(TR)测试数据</t>
   </si>
   <si>
     <t xml:space="preserve">□低温（-40℃）    □高温（+70℃）    □常温</t>
@@ -31,35 +31,29 @@
     <t>端口</t>
   </si>
   <si>
-    <t xml:space="preserve">驻波     (≤1.5)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">插入损耗  (&lt;15.5dB)</t>
-  </si>
-  <si>
-    <t>相位一致性(≤±10°)</t>
+    <t xml:space="preserve">驻波     (≤1.8)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">插入损耗  (&lt;17dB)</t>
+  </si>
+  <si>
+    <t>相位一致性(≤±8°)</t>
   </si>
   <si>
     <t>隔离度
-(≥20dB)</t>
-  </si>
-  <si>
-    <t>幅度一致性（≤±0.5dB）</t>
-  </si>
-  <si>
-    <t>3.03GHz</t>
-  </si>
-  <si>
-    <t>3.18GHz</t>
-  </si>
-  <si>
-    <t>3.33GHz　</t>
-  </si>
-  <si>
-    <t>3.03GHz</t>
-  </si>
-  <si>
-    <t>3.18GHz</t>
+(≥25dB)</t>
+  </si>
+  <si>
+    <t>幅度一致性（≤±0.6dB）</t>
+  </si>
+  <si>
+    <t>20MHz</t>
+  </si>
+  <si>
+    <t>120MHz</t>
+  </si>
+  <si>
+    <t>480MHz　</t>
   </si>
   <si>
     <t>OUT1</t>
@@ -138,9 +132,6 @@
   </si>
   <si>
     <t>Min</t>
-  </si>
-  <si>
-    <t>一致性</t>
   </si>
 </sst>
 </file>
@@ -633,7 +624,7 @@
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -732,10 +723,10 @@
         <v>12</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="I6" s="3" t="s">
         <v>12</v>
@@ -745,119 +736,91 @@
     <row r="7">
       <c r="A7" s="3"/>
       <c r="B7" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C7" s="8">
-        <v>1.28</v>
+        <v>1.0700000000000001</v>
       </c>
       <c r="D7" s="8">
-        <v>14.210000000000001</v>
+        <v>14.300000000000001</v>
       </c>
       <c r="E7" s="8">
-        <v>14.02</v>
+        <v>14.6</v>
       </c>
       <c r="F7" s="8">
-        <v>14.050000000000001</v>
+        <v>16</v>
       </c>
       <c r="G7" s="8">
-        <v>1.72</v>
+        <v>0</v>
       </c>
       <c r="H7" s="8">
-        <v>2.3199999999999998</v>
+        <v>0</v>
       </c>
       <c r="I7" s="8">
-        <v>1.6200000000000001</v>
+        <v>3</v>
       </c>
       <c r="J7" s="9"/>
     </row>
     <row r="8">
       <c r="A8" s="3"/>
       <c r="B8" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C8" s="8">
         <v>1.22</v>
       </c>
       <c r="D8" s="8">
-        <v>14.210000000000001</v>
+        <v>14.300000000000001</v>
       </c>
       <c r="E8" s="8">
-        <v>14.02</v>
+        <v>14.6</v>
       </c>
       <c r="F8" s="8">
-        <v>14.050000000000001</v>
+        <v>16</v>
       </c>
       <c r="G8" s="8">
-        <v>1.71</v>
+        <v>0</v>
       </c>
       <c r="H8" s="8">
-        <v>2.3300000000000001</v>
+        <v>0</v>
       </c>
       <c r="I8" s="8">
-        <v>1.5900000000000001</v>
+        <v>3</v>
       </c>
       <c r="J8" s="9"/>
     </row>
     <row r="9">
       <c r="A9" s="3"/>
       <c r="B9" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="8">
-        <v>1.22</v>
-      </c>
-      <c r="D9" s="8">
-        <v>14.210000000000001</v>
-      </c>
-      <c r="E9" s="8">
-        <v>14.02</v>
-      </c>
-      <c r="F9" s="8">
-        <v>14.050000000000001</v>
-      </c>
-      <c r="G9" s="8">
-        <v>1.71</v>
-      </c>
-      <c r="H9" s="8">
-        <v>2.3199999999999998</v>
-      </c>
-      <c r="I9" s="8">
-        <v>1.5900000000000001</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
       <c r="J9" s="9"/>
     </row>
     <row r="10">
       <c r="A10" s="3"/>
       <c r="B10" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" s="8">
-        <v>1.22</v>
-      </c>
-      <c r="D10" s="8">
-        <v>14.210000000000001</v>
-      </c>
-      <c r="E10" s="8">
-        <v>14.02</v>
-      </c>
-      <c r="F10" s="8">
-        <v>14.050000000000001</v>
-      </c>
-      <c r="G10" s="8">
-        <v>1.72</v>
-      </c>
-      <c r="H10" s="8">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="I10" s="8">
-        <v>1.6000000000000001</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
       <c r="J10" s="9"/>
     </row>
     <row r="11">
       <c r="A11" s="3"/>
       <c r="B11" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
@@ -871,7 +834,7 @@
     <row r="12">
       <c r="A12" s="3"/>
       <c r="B12" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
@@ -885,7 +848,7 @@
     <row r="13">
       <c r="A13" s="3"/>
       <c r="B13" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
@@ -899,7 +862,7 @@
     <row r="14">
       <c r="A14" s="3"/>
       <c r="B14" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
@@ -913,7 +876,7 @@
     <row r="15">
       <c r="A15" s="3"/>
       <c r="B15" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
@@ -927,7 +890,7 @@
     <row r="16">
       <c r="A16" s="3"/>
       <c r="B16" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
@@ -941,7 +904,7 @@
     <row r="17">
       <c r="A17" s="3"/>
       <c r="B17" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
@@ -955,7 +918,7 @@
     <row r="18">
       <c r="A18" s="3"/>
       <c r="B18" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
@@ -969,7 +932,7 @@
     <row r="19">
       <c r="A19" s="3"/>
       <c r="B19" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
@@ -983,7 +946,7 @@
     <row r="20">
       <c r="A20" s="3"/>
       <c r="B20" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
@@ -997,7 +960,7 @@
     <row r="21">
       <c r="A21" s="3"/>
       <c r="B21" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
@@ -1011,7 +974,7 @@
     <row r="22">
       <c r="A22" s="3"/>
       <c r="B22" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
@@ -1025,7 +988,7 @@
     <row r="23">
       <c r="A23" s="3"/>
       <c r="B23" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
@@ -1039,7 +1002,7 @@
     <row r="24">
       <c r="A24" s="3"/>
       <c r="B24" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
@@ -1053,7 +1016,7 @@
     <row r="25">
       <c r="A25" s="3"/>
       <c r="B25" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
@@ -1067,7 +1030,7 @@
     <row r="26">
       <c r="A26" s="3"/>
       <c r="B26" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
@@ -1081,11 +1044,11 @@
     <row r="27">
       <c r="A27" s="3"/>
       <c r="B27" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C27" s="3"/>
       <c r="D27" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
@@ -1097,73 +1060,73 @@
     <row r="28">
       <c r="A28" s="3"/>
       <c r="B28" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C28" s="3"/>
       <c r="D28" s="3">
         <f>MAX(D7:D26)</f>
-        <v>14.210000000000001</v>
+        <v>14.300000000000001</v>
       </c>
       <c r="E28" s="3">
-        <f>MAX(E7:E26)</f>
-        <v>14.02</v>
+        <f t="shared" ref="E28:I28" si="0">MAX(E7:E26)</f>
+        <v>14.6</v>
       </c>
       <c r="F28" s="3">
-        <f>MAX(F7:F26)</f>
-        <v>14.050000000000001</v>
+        <f t="shared" si="0"/>
+        <v>16</v>
       </c>
       <c r="G28" s="3">
-        <f>MAX(G7:G26)</f>
-        <v>1.72</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="H28" s="3">
-        <f t="shared" ref="H28:I28" si="0">MAX(H7:H26)</f>
-        <v>2.3300000000000001</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="I28" s="3">
         <f t="shared" si="0"/>
-        <v>1.6200000000000001</v>
+        <v>3</v>
       </c>
       <c r="J28" s="10" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="3"/>
       <c r="B29" s="11" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C29" s="12"/>
       <c r="D29" s="3">
         <f>MIN(D7:D26)</f>
-        <v>14.210000000000001</v>
+        <v>14.300000000000001</v>
       </c>
       <c r="E29" s="3">
         <f t="shared" ref="E29:I29" si="1">MIN(E7:E26)</f>
-        <v>14.02</v>
+        <v>14.6</v>
       </c>
       <c r="F29" s="3">
-        <f>MIN(F7:F26)</f>
-        <v>14.050000000000001</v>
+        <f t="shared" si="1"/>
+        <v>16</v>
       </c>
       <c r="G29" s="3">
         <f t="shared" si="1"/>
-        <v>1.71</v>
+        <v>0</v>
       </c>
       <c r="H29" s="3">
         <f t="shared" si="1"/>
-        <v>2.3199999999999998</v>
+        <v>0</v>
       </c>
       <c r="I29" s="3">
         <f t="shared" si="1"/>
-        <v>1.5900000000000001</v>
+        <v>3</v>
       </c>
       <c r="J29" s="13"/>
     </row>
-    <row r="30" ht="15.75" customHeight="1">
+    <row r="30">
       <c r="A30" s="3"/>
       <c r="B30" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C30" s="3"/>
       <c r="D30" s="14">
@@ -1171,7 +1134,7 @@
         <v>0</v>
       </c>
       <c r="E30" s="14">
-        <f t="shared" ref="E30:H30" si="2">E28-E29</f>
+        <f t="shared" ref="E30:I30" si="2">E28-E29</f>
         <v>0</v>
       </c>
       <c r="F30" s="14">
@@ -1180,15 +1143,15 @@
       </c>
       <c r="G30" s="14">
         <f t="shared" si="2"/>
-        <v>0.010000000000000009</v>
+        <v>0</v>
       </c>
       <c r="H30" s="14">
         <f t="shared" si="2"/>
-        <v>0.010000000000000231</v>
+        <v>0</v>
       </c>
       <c r="I30" s="14">
-        <f>I28-I29</f>
-        <v>0.030000000000000027</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="J30" s="15"/>
     </row>
@@ -1207,7 +1170,7 @@
     <row r="32">
       <c r="A32" s="3"/>
       <c r="B32" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
@@ -1221,7 +1184,7 @@
     <row r="33">
       <c r="A33" s="3"/>
       <c r="B33" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
@@ -1235,7 +1198,7 @@
     <row r="34">
       <c r="A34" s="3"/>
       <c r="B34" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
@@ -1249,7 +1212,7 @@
     <row r="35">
       <c r="A35" s="3"/>
       <c r="B35" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
@@ -1263,7 +1226,7 @@
     <row r="36">
       <c r="A36" s="3"/>
       <c r="B36" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
@@ -1277,7 +1240,7 @@
     <row r="37">
       <c r="A37" s="3"/>
       <c r="B37" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
@@ -1291,7 +1254,7 @@
     <row r="38">
       <c r="A38" s="3"/>
       <c r="B38" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
@@ -1305,7 +1268,7 @@
     <row r="39">
       <c r="A39" s="3"/>
       <c r="B39" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C39" s="3"/>
       <c r="D39" s="3"/>
@@ -1319,7 +1282,7 @@
     <row r="40">
       <c r="A40" s="3"/>
       <c r="B40" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C40" s="3"/>
       <c r="D40" s="3"/>
@@ -1333,7 +1296,7 @@
     <row r="41">
       <c r="A41" s="3"/>
       <c r="B41" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C41" s="3"/>
       <c r="D41" s="3"/>
@@ -1347,7 +1310,7 @@
     <row r="42">
       <c r="A42" s="3"/>
       <c r="B42" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C42" s="3"/>
       <c r="D42" s="3"/>
@@ -1361,7 +1324,7 @@
     <row r="43">
       <c r="A43" s="3"/>
       <c r="B43" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C43" s="3"/>
       <c r="D43" s="3"/>
@@ -1375,7 +1338,7 @@
     <row r="44">
       <c r="A44" s="3"/>
       <c r="B44" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C44" s="3"/>
       <c r="D44" s="3"/>
@@ -1389,7 +1352,7 @@
     <row r="45">
       <c r="A45" s="3"/>
       <c r="B45" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C45" s="3"/>
       <c r="D45" s="3"/>
@@ -1403,7 +1366,7 @@
     <row r="46">
       <c r="A46" s="3"/>
       <c r="B46" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C46" s="3"/>
       <c r="D46" s="3"/>
@@ -1417,7 +1380,7 @@
     <row r="47">
       <c r="A47" s="3"/>
       <c r="B47" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C47" s="3"/>
       <c r="D47" s="3"/>
@@ -1431,7 +1394,7 @@
     <row r="48">
       <c r="A48" s="3"/>
       <c r="B48" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C48" s="3"/>
       <c r="D48" s="3"/>
@@ -1445,7 +1408,7 @@
     <row r="49">
       <c r="A49" s="3"/>
       <c r="B49" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C49" s="3"/>
       <c r="D49" s="3"/>
@@ -1459,7 +1422,7 @@
     <row r="50">
       <c r="A50" s="3"/>
       <c r="B50" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C50" s="3"/>
       <c r="D50" s="3"/>
@@ -1473,7 +1436,7 @@
     <row r="51">
       <c r="A51" s="3"/>
       <c r="B51" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C51" s="3"/>
       <c r="D51" s="3"/>
@@ -1487,11 +1450,11 @@
     <row r="52">
       <c r="A52" s="3"/>
       <c r="B52" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C52" s="3"/>
       <c r="D52" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E52" s="3"/>
       <c r="F52" s="3"/>
@@ -1503,7 +1466,7 @@
     <row r="53">
       <c r="A53" s="3"/>
       <c r="B53" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C53" s="3"/>
       <c r="D53" s="3"/>
@@ -1513,13 +1476,13 @@
       <c r="H53" s="3"/>
       <c r="I53" s="3"/>
       <c r="J53" s="10" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="3"/>
       <c r="B54" s="11" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C54" s="12"/>
       <c r="D54" s="3"/>
@@ -1533,7 +1496,7 @@
     <row r="55">
       <c r="A55" s="3"/>
       <c r="B55" s="3" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C55" s="3"/>
       <c r="D55" s="9"/>
@@ -1546,7 +1509,32 @@
     </row>
   </sheetData>
   <mergeCells count="43">
-    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A3:J3"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="G4:I5"/>
+    <mergeCell ref="J4:J6"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="A7:A30"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="J11:J12"/>
+    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="J17:J18"/>
+    <mergeCell ref="J19:J20"/>
+    <mergeCell ref="J21:J22"/>
+    <mergeCell ref="J23:J24"/>
+    <mergeCell ref="J25:J26"/>
+    <mergeCell ref="D27:J27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="J28:J30"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
     <mergeCell ref="A31:J31"/>
     <mergeCell ref="A32:A55"/>
     <mergeCell ref="J32:J33"/>
@@ -1563,32 +1551,7 @@
     <mergeCell ref="B53:C53"/>
     <mergeCell ref="J53:J55"/>
     <mergeCell ref="B54:C54"/>
-    <mergeCell ref="A7:A30"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="J9:J10"/>
-    <mergeCell ref="J11:J12"/>
-    <mergeCell ref="J13:J14"/>
-    <mergeCell ref="J15:J16"/>
-    <mergeCell ref="J17:J18"/>
-    <mergeCell ref="J19:J20"/>
-    <mergeCell ref="J21:J22"/>
-    <mergeCell ref="J23:J24"/>
-    <mergeCell ref="J25:J26"/>
-    <mergeCell ref="D27:J27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="J28:J30"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="C4:C6"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="G4:I5"/>
-    <mergeCell ref="J4:J6"/>
-    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="B55:C55"/>
   </mergeCells>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
